--- a/conf/smoke3/smoke_context.xlsx
+++ b/conf/smoke3/smoke_context.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13509" uniqueCount="1231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13513" uniqueCount="1270">
   <si>
     <t xml:space="preserve">#Define which features will be assigned values in an annotation type ("Concept" in this case)</t>
   </si>
@@ -1097,6 +1097,2622 @@
     <t xml:space="preserve">dad</t>
   </si>
   <si>
+    <t xml:space="preserve">\&gt; 0 -month of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\&gt; 0 -months of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\&gt; 0 -year of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\&gt; 0 -years of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\&gt; 0 month ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\&gt; 0 month of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\&gt; 0 months ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\&gt; 0 months of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\&gt; 0 mo ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\&gt; 0 mo of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\&gt; 0 year ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\&gt; 0 year of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\&gt; 0 years ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\&gt; 0 years of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\&gt; 0 yrs ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\&gt; 1 -week of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\&gt; 1 -weeks of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\&gt; 1 week ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\&gt; 1 week of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\&gt; 1 weeks ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\&gt; 1 weeks of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\&gt; 13 -day of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\&gt; 13 -days of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\&gt; 13 day of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\&gt; 13 days of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\w+ no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">absence of a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">termination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">absence of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adequate to rule her out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adequate to rule her out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adequate to rule him out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adequate to rule him out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adequate to rule out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adequate to rule out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adequate to rule the patient out against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adequate to rule the patient out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adequate to rule the patient out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">although</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Shock, resolved unknown etiology, Patient presents with encephalopathy, non focal neurologic exam, CN nerve exam WNL.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presents with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presented with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and \w+ \w+ shown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and \w+ \w+ shows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and \w+ \w+ show</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and \w+ shown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and \w+ shows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and \w+ show</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and did</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and he had</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and he was noted to have</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and he was</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and noted to have</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and she had</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and she was noted to have</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and she was</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and the patient had</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and the patient was</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and with only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">any other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apart from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">appears to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">are negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">are no longer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">are ruled out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">are stopped</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a  for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a cause for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a cause of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a etiology for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a etiology of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a reason for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a reason of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a secondary cause for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a secondary cause of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a secondary etiology for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a secondary etiology of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a secondary origin for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a secondary origin of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a secondary reason for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a secondary reason of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a secondary source for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a secondary source of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a source for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a source of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as an cause for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as an cause of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as an etiology for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as an etiology of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as an origin for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as an origin of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as an reason for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as an reason of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as an secondary cause for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as an secondary cause of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as an secondary etiology for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as an secondary etiology of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as an secondary origin for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as an secondary origin of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as an secondary reason for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as an secondary reason of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as an secondary source for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as an secondary source of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as an source for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as an source of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as has</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as needed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the cause for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the cause of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the etiology for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the etiology of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the origin for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the origin of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the reason for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the reason of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the secondary cause for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the secondary cause of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the secondary etiology for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the secondary etiology of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the secondary origin for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the secondary origin of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the secondary reason for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the secondary reason of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the secondary source for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the secondary source of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the source for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the source of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as well as any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aside from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pseudo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">at that time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">at this time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attempted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aunt's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be ruled out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be ruled out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be stopped</t>
+  </si>
+  <si>
+    <t xml:space="preserve">because</t>
+  </si>
+  <si>
+    <t xml:space="preserve">being ruled out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beyond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biopsy of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">borderline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brother ' s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">but</t>
+  </si>
+  <si>
+    <t xml:space="preserve">##</t>
+  </si>
+  <si>
+    <t xml:space="preserve">by \w+ family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">by family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">by the</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can be ruled out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can be ruled out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can rule her out against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can rule her out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can rule her out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can rule him out against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can rule him out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can rule him out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can rule out against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can rule out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can rule out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can rule the patient out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can rule the patinet out against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can rule the patinet out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#cannot be completely excluded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#cannot be excluded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#cannot be fully excluded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cannot see</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cannot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cause for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cause of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">causes for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">causes of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clear of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">come back for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">come back to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">complains</t>
+  </si>
+  <si>
+    <t xml:space="preserve">concern for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">concerned about</t>
+  </si>
+  <si>
+    <t xml:space="preserve">concerned for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">concerning for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#consistent with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">could be either</t>
+  </si>
+  <si>
+    <t xml:space="preserve">could be</t>
+  </si>
+  <si>
+    <t xml:space="preserve">could be ruled out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">could be ruled out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dad called</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dad's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">daughter called</t>
+  </si>
+  <si>
+    <t xml:space="preserve">daughter reported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">daughter reports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decided</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied any abnormal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied any change in the</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied any changes in the</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied any current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied any high risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied any high-risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied any history of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied any other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied any problems of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied any problems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied any recent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied any significant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied any symptom of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied any symptoms of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied ever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied other symptoms of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied problems with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied symptoms of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied that there was any current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied that there was any history of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied that there was any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied that there was ever history of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied that there was ever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied that there was history of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied that there was problems of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied that there was problems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied that there were any history of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied that there were any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied that there were ever history of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied that there were ever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied that there were history of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied that there were problems of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied that there were problems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied this</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied use of other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied use of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies any abnormal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies any change in the</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies any changes in the</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies any current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies any high risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies any high-risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies any history of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies any other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies any problems of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies any problems with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies any problems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies any recent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies any significant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies any symptom of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies any symptoms of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies any undue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies ever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies problems with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies significant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies symptoms of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies there was any current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies there was any history of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies there was any recent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies there was any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies there was ever history of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies there was ever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies there was history of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies there was problems of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies there was problems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies there were any history of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies there were any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies there were ever history of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies there were ever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies there were history of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies there were problems of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies there were problems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies this</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies use of other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies use of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did have</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did not have any episodes of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did not have any more episodes of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did not have any problems with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did not observe a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did not rule out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did rule her out against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did rule her out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did rule her out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did rule him out against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did rule him out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did rule him out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did rule out against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did rule out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did rule out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did rule the patient out against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did rule the patient out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did rule the patient out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did show</t>
+  </si>
+  <si>
+    <t xml:space="preserve">didn't express any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">didn't expressed any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">didn't have any problems with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">didn't report any problems with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">didn't report any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">does have</t>
+  </si>
+  <si>
+    <t xml:space="preserve">differential also includes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">differential diagnoses also includes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">differential diagnoses includes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">differential includes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">does not appear to have any bizarre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">does not appear to have any issues of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">does not appear to have any issues with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">does not appear to have any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">does not express</t>
+  </si>
+  <si>
+    <t xml:space="preserve">does not use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">does not usually</t>
+  </si>
+  <si>
+    <t xml:space="preserve">does not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doesn't look like</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doubt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">due to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ecchymoses to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emergency department</t>
+  </si>
+  <si>
+    <t xml:space="preserve">etiology for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">etiology of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exacerbation from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exam to assess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">examination assess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">examination to assess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">examinations to assess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exams to assess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">except</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f/h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fails to reveal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">false negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fam hx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">family found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">family history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">family said</t>
+  </si>
+  <si>
+    <t xml:space="preserve">family stated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">family told</t>
+  </si>
+  <si>
+    <t xml:space="preserve">father called</t>
+  </si>
+  <si>
+    <t xml:space="preserve">father's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#final report indication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for presumed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">free air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">free fluid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">free of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">free t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">free wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">free water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">free</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">given \w+ history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">given her history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">given his history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">given patient s history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">given that</t>
+  </si>
+  <si>
+    <t xml:space="preserve">given the fact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">given the history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">given the severity of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gram negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grandfather's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grandmother's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">had a negative \w+ for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has a negative \w+ for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has been negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has been ruled out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has not had any problems with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has not had any problems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has not had any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">have a negative \w+ for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">have been ruled out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">he continued to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">her old</t>
+  </si>
+  <si>
+    <t xml:space="preserve">his old</t>
+  </si>
+  <si>
+    <t xml:space="preserve">history and examination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">history and physical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">history and</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#the patient smokes two packs per day and has an approximately a 75-pack-year history of smoking .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#history for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">history of chief complaint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">history of present illness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">history physical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">history taking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">however</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in her</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in his</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in the setting of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inconsistent with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#indication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is neg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is no longer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is ruled out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is stopped</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is to be ruled out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is to be ruled out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isn't</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lack of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lacked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last \&gt; 0 month ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last \&gt; 0 months ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last \&gt; 0 year ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last \&gt; 0 years ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last \&gt; 0 yrs ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last \&gt; 1 week ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last \&gt; 1 weeks ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last april</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last august</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last december</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last fall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last february</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last january</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last july</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last june</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last march</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last may</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last november</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last october</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last september</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last spring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last summer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last winter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">likely component of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">likely contributors to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">likely from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">likely in setting of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">likely reflecting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">likely</t>
+  </si>
+  <si>
+    <t xml:space="preserve">look for any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">look for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">markedly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">may be \w+ underestimated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">may be contributing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">may be due to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">may be related to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">may be ruled out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">may be ruled out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">may be underestimated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">may be unmasking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">may be</t>
+  </si>
+  <si>
+    <t xml:space="preserve">may have been preceded by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">may have</t>
+  </si>
+  <si>
+    <t xml:space="preserve">may represent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">might be ruled out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">might be ruled out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">might be</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mildly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mild</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mom called</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mom's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monitor \w+ for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monitor the \w+ for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mother called</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mother's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">must be ruled out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">must be ruled out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neg for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neg.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neighbor called</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neighbors called</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neighbors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neighbor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neighbour called</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neighbours called</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neighbours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neighbour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">never any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">never developed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nevertheless</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no \w+ evid of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no \w+ evid to suggest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no \w+ evid to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no \w+ evidence to suggest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no \w+ evidence to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no \w+ evidence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no \w+ evid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no \w+ was given</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no abnormal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no acute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no additional significant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no apparent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no cause of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no complaints of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no definite change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no e/o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no e o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no evidence to suggest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no evidence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no findings to indicate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no findings to suggest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no h o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no history of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no hx of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no indication of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no indications of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no interval change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no known history of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no known hx of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no longer present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no longer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no major</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no mammographic evidence of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no mention of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no new evidence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no new</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no other evidence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no other symptoms of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no problems with '</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no radiographic evidence of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no recurrent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no reported mention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no reported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no residual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no significant change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no significant interval change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no signs of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no signs or symptoms of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no sign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no suspicious change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no suspicious</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no sxs of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no visable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">non diagnostic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nor all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nor any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not a current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not appear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not appreciate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not associated with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not attempted given</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not been ruled out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not cause</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not certain if</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not certain whether</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not complain of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not demonstrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not drain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not exhibit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not extend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not feel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not have evidence of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not have</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not in acute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not interested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not know of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not necessarily</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not reveal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not ruled out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not see</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not solve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not to be</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">now resolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#-Possibility of current pregnancy   yes, using condoms  -Currently using IUD for contraception   no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">origin for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">origin of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">origins for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">origins of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other possibilities of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ought to be ruled out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ought to be ruled out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">past history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">past medical history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patient continued to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patient was not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patient's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poor history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">possibility of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">possible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">possibly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presenting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presumably</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presumed to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">probable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">probably</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prophylaxis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">question was</t>
+  </si>
+  <si>
+    <t xml:space="preserve">questioned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rather than</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reason for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reason of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reasons for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reasons of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">return</t>
+  </si>
+  <si>
+    <t xml:space="preserve">risk of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roommate called</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roommates called</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roommates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roommate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rule her out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rule her out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rule him out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rule him out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rule out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rule out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rule the patient out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rule the patinet out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruled her out against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruled her out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruled her out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruled him out against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruled him out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruled him out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruled out against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruled out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruled out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruled the patient out against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruled the patient out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruled the patient out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rules her out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rules her out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rules him out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rules him out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rules out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rules out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rules the patient out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rules the patient out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">secondary to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">secondary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">she continued to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">should be ruled out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">should be ruled out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">should he</t>
+  </si>
+  <si>
+    <t xml:space="preserve">should she</t>
+  </si>
+  <si>
+    <t xml:space="preserve">should the patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">should there</t>
+  </si>
+  <si>
+    <t xml:space="preserve">show a question of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shown a question of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">since april</t>
+  </si>
+  <si>
+    <t xml:space="preserve">since august</t>
+  </si>
+  <si>
+    <t xml:space="preserve">since december</t>
+  </si>
+  <si>
+    <t xml:space="preserve">since fall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">since february</t>
+  </si>
+  <si>
+    <t xml:space="preserve">since january</t>
+  </si>
+  <si>
+    <t xml:space="preserve">since july</t>
+  </si>
+  <si>
+    <t xml:space="preserve">since june</t>
+  </si>
+  <si>
+    <t xml:space="preserve">since march</t>
+  </si>
+  <si>
+    <t xml:space="preserve">since may</t>
+  </si>
+  <si>
+    <t xml:space="preserve">since november</t>
+  </si>
+  <si>
+    <t xml:space="preserve">since october</t>
+  </si>
+  <si>
+    <t xml:space="preserve">since september</t>
+  </si>
+  <si>
+    <t xml:space="preserve">since spring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">since summer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">since winter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sister's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sister called</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sister reported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sister reports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">social history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">son called</t>
+  </si>
+  <si>
+    <t xml:space="preserve">son reported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">son reports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sources for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sources of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">speaking with family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spoke with family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">states</t>
+  </si>
+  <si>
+    <t xml:space="preserve">status post</t>
+  </si>
+  <si>
+    <t xml:space="preserve">still</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stopped taking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">studies to assess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">study to assess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sudden onset of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sufficient to rule her out against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sufficient to rule her out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sufficient to rule her out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sufficient to rule him out against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sufficient to rule him out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sufficient to rule him out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sufficient to rule out against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sufficient to rule out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sufficient to rule out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sufficient to rule the patient out against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sufficient to rule the patient out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sufficient to rule the patient out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suggestive of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suggest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suspected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suspicion for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suspicious for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talked with family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talking with family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the presumed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">though</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to evaluate for any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to prevent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">today</t>
+  </si>
+  <si>
+    <t xml:space="preserve">treatment of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trigger event for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uncle's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unclear dose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unclear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unlikely</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#She continues to use IUD and condoms as her two forms of birth control.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">continue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w/o evidence of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w/o evidence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w/o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w o evidence of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w o evidence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wants to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">was found negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">was found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">was initially suspected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">was instructed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">was negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">was noted to be negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">was not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">was ruled out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">was stopped by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">was stopped due to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">was stopped</t>
+  </si>
+  <si>
+    <t xml:space="preserve">was suspected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wasn't</t>
+  </si>
+  <si>
+    <t xml:space="preserve">were instructed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">were stopped</t>
+  </si>
+  <si>
+    <t xml:space="preserve">were totally</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what must be ruled out is</t>
+  </si>
+  <si>
+    <t xml:space="preserve">whether or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">which</t>
+  </si>
+  <si>
+    <t xml:space="preserve">while</t>
+  </si>
+  <si>
+    <t xml:space="preserve">who are not present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">will be ruled out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">will be ruled out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with \w+ dad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with \w+ daughter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with \w+ father</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with \w+ mom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with \w+ mother</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with \w+ son</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with a question of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without \w+ evidence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without abnormal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without additional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without any evidence of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without an</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without apparent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without audible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without becoming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without being</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without causing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without difficulties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without difficulty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without diff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without evidence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without experiencing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without further</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without gross</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without having</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without increased</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without indication of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without major</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without maximally</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without mention of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without much</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without new</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without noted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without noticed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without obvious</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without painful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without paraspinal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without peripheral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without purulent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without reported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without sign of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without significant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without signs of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without some</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without success</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without the</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without upward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without using</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without visible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without vital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without which</t>
+  </si>
+  <si>
+    <t xml:space="preserve">worried about</t>
+  </si>
+  <si>
+    <t xml:space="preserve">worrisome for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">given</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with resolution of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">call</t>
+  </si>
+  <si>
+    <t xml:space="preserve">## if tokenize include punctuations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w / o evidence of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w / o evidence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w / o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f / h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h / o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no e / o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no h / o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r / o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\&gt; 13 - day of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\&gt; 13 - days of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\&gt; 0 - month of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\&gt; 0 - months of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\&gt; 0 - year of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\&gt; 0 - years of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dont</t>
+  </si>
+  <si>
+    <t xml:space="preserve">don t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">high risk for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">don ' t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monitor for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monitored for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">high risk of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">at risk of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">panel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evaluation for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evaluation of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eval for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eval of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assess for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assess of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evaluate for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evalaute for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#history of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">friends</t>
+  </si>
+  <si>
+    <t xml:space="preserve">friend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#she quit smoking tobacco </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ceases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ceased</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">( neg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#qualifications met for psychiatric referral? no if yes: substance abuse: mary endorses a history of smoking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from age \&gt; 5 - \&gt; 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">: denies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">: denied</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\&lt; 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maternal</t>
+  </si>
+  <si>
     <t xml:space="preserve">&gt; 0 -month of</t>
   </si>
   <si>
@@ -1172,1147 +3788,7 @@
     <t xml:space="preserve">&gt; 13 days of</t>
   </si>
   <si>
-    <t xml:space="preserve">\w+ no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">absence of a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">termination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">absence of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adequate to rule her out for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adequate to rule her out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adequate to rule him out for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adequate to rule him out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adequate to rule out for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adequate to rule out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adequate to rule the patient out against</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adequate to rule the patient out for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adequate to rule the patient out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">although</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Shock, resolved unknown etiology, Patient presents with encephalopathy, non focal neurologic exam, CN nerve exam WNL.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">presents with</t>
-  </si>
-  <si>
-    <t xml:space="preserve">presented with</t>
-  </si>
-  <si>
-    <t xml:space="preserve">and \w+ \w+ shown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">and \w+ \w+ shows</t>
-  </si>
-  <si>
-    <t xml:space="preserve">and \w+ \w+ show</t>
-  </si>
-  <si>
-    <t xml:space="preserve">and \w+ shown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">and \w+ shows</t>
-  </si>
-  <si>
-    <t xml:space="preserve">and \w+ show</t>
-  </si>
-  <si>
-    <t xml:space="preserve">and did</t>
-  </si>
-  <si>
-    <t xml:space="preserve">and he had</t>
-  </si>
-  <si>
-    <t xml:space="preserve">and he was noted to have</t>
-  </si>
-  <si>
-    <t xml:space="preserve">and he was</t>
-  </si>
-  <si>
-    <t xml:space="preserve">and noted to have</t>
-  </si>
-  <si>
-    <t xml:space="preserve">and she had</t>
-  </si>
-  <si>
-    <t xml:space="preserve">and she was noted to have</t>
-  </si>
-  <si>
-    <t xml:space="preserve">and she was</t>
-  </si>
-  <si>
-    <t xml:space="preserve">and the patient had</t>
-  </si>
-  <si>
-    <t xml:space="preserve">and the patient was</t>
-  </si>
-  <si>
-    <t xml:space="preserve">and with only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">any other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">apart from</t>
-  </si>
-  <si>
-    <t xml:space="preserve">appears to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">are negative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">are no longer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">are ruled out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">are stopped</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as a  for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as a cause for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as a cause of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as a etiology for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as a etiology of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as a reason for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as a reason of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as a secondary cause for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as a secondary cause of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as a secondary etiology for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as a secondary etiology of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as a secondary origin for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as a secondary origin of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as a secondary reason for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as a secondary reason of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as a secondary source for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as a secondary source of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as a source for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as a source of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as an cause for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as an cause of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as an etiology for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as an etiology of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as an origin for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as an origin of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as an reason for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as an reason of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as an secondary cause for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as an secondary cause of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as an secondary etiology for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as an secondary etiology of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as an secondary origin for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as an secondary origin of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as an secondary reason for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as an secondary reason of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as an secondary source for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as an secondary source of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as an source for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as an source of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as has</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as needed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as the cause for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as the cause of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as the etiology for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as the etiology of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as the origin for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as the origin of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as the reason for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as the reason of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as the secondary cause for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as the secondary cause of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as the secondary etiology for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as the secondary etiology of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as the secondary origin for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as the secondary origin of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as the secondary reason for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as the secondary reason of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as the secondary source for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as the secondary source of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as the source for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as the source of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as well as any</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aside from</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pseudo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">at that time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">at this time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attempted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aunt's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">be ruled out for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">be ruled out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">be stopped</t>
-  </si>
-  <si>
-    <t xml:space="preserve">because</t>
-  </si>
-  <si>
-    <t xml:space="preserve">being ruled out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beyond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biopsy of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">borderline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brother ' s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">but</t>
-  </si>
-  <si>
-    <t xml:space="preserve">##</t>
-  </si>
-  <si>
-    <t xml:space="preserve">by \w+ family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">by family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">by the</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">can be ruled out for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">can be ruled out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">can rule her out against</t>
-  </si>
-  <si>
-    <t xml:space="preserve">can rule her out for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">can rule her out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">can rule him out against</t>
-  </si>
-  <si>
-    <t xml:space="preserve">can rule him out for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">can rule him out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">can rule out against</t>
-  </si>
-  <si>
-    <t xml:space="preserve">can rule out for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">can rule out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">can rule the patient out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">can rule the patinet out against</t>
-  </si>
-  <si>
-    <t xml:space="preserve">can rule the patinet out for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#cannot be completely excluded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#cannot be excluded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#cannot be fully excluded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cannot see</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cannot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cause for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cause of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">causes for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">causes of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clear of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">come back for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">come back to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">complains</t>
-  </si>
-  <si>
-    <t xml:space="preserve">concern for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">concerned about</t>
-  </si>
-  <si>
-    <t xml:space="preserve">concerned for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">concerning for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#consistent with</t>
-  </si>
-  <si>
-    <t xml:space="preserve">could be either</t>
-  </si>
-  <si>
-    <t xml:space="preserve">could be</t>
-  </si>
-  <si>
-    <t xml:space="preserve">could be ruled out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">could be ruled out for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dad called</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dad's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">daughter called</t>
-  </si>
-  <si>
-    <t xml:space="preserve">daughter reported</t>
-  </si>
-  <si>
-    <t xml:space="preserve">daughter reports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decided</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decides</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denied active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denied any abnormal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denied any change in the</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denied any changes in the</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denied any current</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denied any high risk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denied any high-risk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denied any history of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denied any other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denied any problems of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denied any problems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denied any recent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denied any significant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denied any symptom of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denied any symptoms of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denied any</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denied current</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denied ever</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denied other symptoms of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denied problems with</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denied symptoms of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denied that there was any current</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denied that there was any history of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denied that there was any</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denied that there was ever history of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denied that there was ever</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denied that there was history of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denied that there was problems of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denied that there was problems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denied that there were any history of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denied that there were any</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denied that there were ever history of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denied that there were ever</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denied that there were history of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denied that there were problems of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denied that there were problems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denied this</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denied use of other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denied use of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denies active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denies any abnormal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denies any change in the</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denies any changes in the</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denies any current</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denies any high risk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denies any high-risk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denies any history of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denies any other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denies any problems of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denies any problems with</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denies any problems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denies any recent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denies any significant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denies any symptom of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denies any symptoms of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denies any undue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denies any</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denies current</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denies ever</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denies problems with</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denies significant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denies symptoms of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denies there was any current</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denies there was any history of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denies there was any recent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denies there was any</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denies there was ever history of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denies there was ever</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denies there was history of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denies there was problems of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denies there was problems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denies there were any history of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denies there were any</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denies there were ever history of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denies there were ever</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denies there were history of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denies there were problems of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denies there were problems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denies this</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denies true</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denies use of other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denies use of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">did have</t>
-  </si>
-  <si>
-    <t xml:space="preserve">did not have any episodes of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">did not have any more episodes of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">did not have any problems with</t>
-  </si>
-  <si>
-    <t xml:space="preserve">did not observe a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">did not rule out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">did rule her out against</t>
-  </si>
-  <si>
-    <t xml:space="preserve">did rule her out for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">did rule her out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">did rule him out against</t>
-  </si>
-  <si>
-    <t xml:space="preserve">did rule him out for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">did rule him out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">did rule out against</t>
-  </si>
-  <si>
-    <t xml:space="preserve">did rule out for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">did rule out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">did rule the patient out against</t>
-  </si>
-  <si>
-    <t xml:space="preserve">did rule the patient out for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">did rule the patient out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">did show</t>
-  </si>
-  <si>
-    <t xml:space="preserve">didn't express any</t>
-  </si>
-  <si>
-    <t xml:space="preserve">didn't expressed any</t>
-  </si>
-  <si>
-    <t xml:space="preserve">didn't have any problems with</t>
-  </si>
-  <si>
-    <t xml:space="preserve">didn't report any problems with</t>
-  </si>
-  <si>
-    <t xml:space="preserve">didn't report any</t>
-  </si>
-  <si>
-    <t xml:space="preserve">does have</t>
-  </si>
-  <si>
-    <t xml:space="preserve">differential also includes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">differential diagnoses also includes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">differential diagnoses includes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">differential includes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">does not appear to have any bizarre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">does not appear to have any issues of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">does not appear to have any issues with</t>
-  </si>
-  <si>
-    <t xml:space="preserve">does not appear to have any</t>
-  </si>
-  <si>
-    <t xml:space="preserve">does not express</t>
-  </si>
-  <si>
-    <t xml:space="preserve">does not use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">does not usually</t>
-  </si>
-  <si>
-    <t xml:space="preserve">does not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">doesn't look like</t>
-  </si>
-  <si>
-    <t xml:space="preserve">doubt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">due to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ecchymoses to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emergency department</t>
-  </si>
-  <si>
-    <t xml:space="preserve">etiology for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">etiology of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exacerbation from</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exam to assess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">examination assess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">examination to assess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">examinations to assess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exams to assess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">except</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f/h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fails to reveal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">false negative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fam hx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">family found</t>
-  </si>
-  <si>
-    <t xml:space="preserve">family history</t>
-  </si>
-  <si>
-    <t xml:space="preserve">family said</t>
-  </si>
-  <si>
-    <t xml:space="preserve">family stated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">family told</t>
-  </si>
-  <si>
-    <t xml:space="preserve">father called</t>
-  </si>
-  <si>
-    <t xml:space="preserve">father's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#final report indication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">for presumed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">free air</t>
-  </si>
-  <si>
-    <t xml:space="preserve">free fluid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">free of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">free t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">free wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">free water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">free</t>
-  </si>
-  <si>
-    <t xml:space="preserve">from</t>
-  </si>
-  <si>
-    <t xml:space="preserve">given \w+ history</t>
-  </si>
-  <si>
-    <t xml:space="preserve">given her history</t>
-  </si>
-  <si>
-    <t xml:space="preserve">given his history</t>
-  </si>
-  <si>
-    <t xml:space="preserve">given patient s history</t>
-  </si>
-  <si>
-    <t xml:space="preserve">given that</t>
-  </si>
-  <si>
-    <t xml:space="preserve">given the fact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">given the history</t>
-  </si>
-  <si>
-    <t xml:space="preserve">given the severity of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gram negative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grandfather's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grandmother's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h o</t>
-  </si>
-  <si>
-    <t xml:space="preserve">had a negative \w+ for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">has a negative \w+ for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">has been negative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">has been ruled out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">has not had any problems with</t>
-  </si>
-  <si>
-    <t xml:space="preserve">has not had any problems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">has not had any</t>
-  </si>
-  <si>
-    <t xml:space="preserve">have a negative \w+ for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">have been ruled out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">he continued to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">her old</t>
-  </si>
-  <si>
-    <t xml:space="preserve">his old</t>
-  </si>
-  <si>
-    <t xml:space="preserve">history and examination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">history and physical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">history and</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#the patient smokes two packs per day and has an approximately a 75-pack-year history of smoking .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#history for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">history of chief complaint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">history of present illness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">history physical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">history taking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#history</t>
-  </si>
-  <si>
-    <t xml:space="preserve">however</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if negative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in her</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in his</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in the setting of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inconsistent with</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#indication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is negative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is neg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is no longer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is ruled out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is stopped</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is to be ruled out for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is to be ruled out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isn't</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lack of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lacked</t>
+    <t xml:space="preserve">history for</t>
   </si>
   <si>
     <t xml:space="preserve">last &gt; 0 month ago</t>
@@ -2336,1257 +3812,6 @@
     <t xml:space="preserve">last &gt; 1 weeks ago</t>
   </si>
   <si>
-    <t xml:space="preserve">last april</t>
-  </si>
-  <si>
-    <t xml:space="preserve">last august</t>
-  </si>
-  <si>
-    <t xml:space="preserve">last december</t>
-  </si>
-  <si>
-    <t xml:space="preserve">last fall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">last february</t>
-  </si>
-  <si>
-    <t xml:space="preserve">last january</t>
-  </si>
-  <si>
-    <t xml:space="preserve">last july</t>
-  </si>
-  <si>
-    <t xml:space="preserve">last june</t>
-  </si>
-  <si>
-    <t xml:space="preserve">last march</t>
-  </si>
-  <si>
-    <t xml:space="preserve">last may</t>
-  </si>
-  <si>
-    <t xml:space="preserve">last november</t>
-  </si>
-  <si>
-    <t xml:space="preserve">last october</t>
-  </si>
-  <si>
-    <t xml:space="preserve">last september</t>
-  </si>
-  <si>
-    <t xml:space="preserve">last spring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">last summer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">last winter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">likely component of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">likely contributors to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">likely from</t>
-  </si>
-  <si>
-    <t xml:space="preserve">likely in setting of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">likely reflecting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">likely</t>
-  </si>
-  <si>
-    <t xml:space="preserve">look for any</t>
-  </si>
-  <si>
-    <t xml:space="preserve">look for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">markedly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">may be \w+ underestimated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">may be contributing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">may be due to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">may be related to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">may be ruled out for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">may be ruled out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">may be underestimated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">may be unmasking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">may be</t>
-  </si>
-  <si>
-    <t xml:space="preserve">may have been preceded by</t>
-  </si>
-  <si>
-    <t xml:space="preserve">may have</t>
-  </si>
-  <si>
-    <t xml:space="preserve">may represent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">might be ruled out for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">might be ruled out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">might be</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mildly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mild</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mom called</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mom's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">monitor \w+ for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">monitor the \w+ for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mother called</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mother's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">must be ruled out for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">must be ruled out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n o</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neg for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neg.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">negative for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neighbor called</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neighbors called</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neighbors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neighbor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neighbour called</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neighbours called</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neighbours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neighbour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">never any</t>
-  </si>
-  <si>
-    <t xml:space="preserve">never developed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nevertheless</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no \w+ evid of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no \w+ evid to suggest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no \w+ evid to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no \w+ evidence to suggest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no \w+ evidence to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no \w+ evidence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no \w+ evid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no \w+ was given</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no abnormal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no acute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no additional significant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no apparent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no cause of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no complaints of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no current</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no definite change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no e/o</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no e o</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no evidence to suggest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no evidence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no findings to indicate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no findings to suggest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no h o</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no history of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no hx of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no increase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no indication of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no indications of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no interval change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no known history of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no known hx of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no longer present</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no longer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no major</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no mammographic evidence of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no mention of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no new evidence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no new</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no other evidence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no other symptoms of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no problems with '</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no radiographic evidence of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no recurrent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no reported mention</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no reported</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no residual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no significant change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no significant interval change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no signs of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no signs or symptoms of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no sign</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no suspicious change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no suspicious</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no sxs of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no visable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">non diagnostic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nor all</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nor any</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not a current</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not appear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not appreciate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not associated with</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not attempted given</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not been ruled out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not cause</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not certain if</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not certain whether</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not complain of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not current</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not demonstrate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not drain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not exhibit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not extend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not feel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not have evidence of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not have</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not in acute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not interested</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not know of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not necessarily</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not on</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not reveal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not ruled out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not see</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not solve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not to be</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">now resolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#-Possibility of current pregnancy   yes, using condoms  -Currently using IUD for contraception   no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">origin for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">origin of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">origins for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">origins of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">other possibilities of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ought to be ruled out for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ought to be ruled out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">past history</t>
-  </si>
-  <si>
-    <t xml:space="preserve">past medical history</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patient continued to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patient was not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patient's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poor history</t>
-  </si>
-  <si>
-    <t xml:space="preserve">possibility of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">possible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">possibly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">presenting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">presents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">presumably</t>
-  </si>
-  <si>
-    <t xml:space="preserve">presumed to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">probable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">probably</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prophylaxis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">question was</t>
-  </si>
-  <si>
-    <t xml:space="preserve">questioned</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r o</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rather than</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reason for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reason of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reasons for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reasons of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reported</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">return</t>
-  </si>
-  <si>
-    <t xml:space="preserve">risk of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roommate called</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roommates called</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roommates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roommate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rule her out for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rule her out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rule him out for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rule him out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rule out for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rule out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rule the patient out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rule the patinet out for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ruled her out against</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ruled her out for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ruled her out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ruled him out against</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ruled him out for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ruled him out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ruled out against</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ruled out for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ruled out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ruled the patient out against</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ruled the patient out for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ruled the patient out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rules her out for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rules her out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rules him out for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rules him out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rules out for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rules out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rules the patient out for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rules the patient out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">secondary to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">secondary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">she continued to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">should be ruled out for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">should be ruled out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">should he</t>
-  </si>
-  <si>
-    <t xml:space="preserve">should she</t>
-  </si>
-  <si>
-    <t xml:space="preserve">should the patient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">should there</t>
-  </si>
-  <si>
-    <t xml:space="preserve">show a question of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shown a question of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">since april</t>
-  </si>
-  <si>
-    <t xml:space="preserve">since august</t>
-  </si>
-  <si>
-    <t xml:space="preserve">since december</t>
-  </si>
-  <si>
-    <t xml:space="preserve">since fall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">since february</t>
-  </si>
-  <si>
-    <t xml:space="preserve">since january</t>
-  </si>
-  <si>
-    <t xml:space="preserve">since july</t>
-  </si>
-  <si>
-    <t xml:space="preserve">since june</t>
-  </si>
-  <si>
-    <t xml:space="preserve">since march</t>
-  </si>
-  <si>
-    <t xml:space="preserve">since may</t>
-  </si>
-  <si>
-    <t xml:space="preserve">since november</t>
-  </si>
-  <si>
-    <t xml:space="preserve">since october</t>
-  </si>
-  <si>
-    <t xml:space="preserve">since september</t>
-  </si>
-  <si>
-    <t xml:space="preserve">since spring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">since summer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">since winter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sister's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sister called</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sister reported</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sister reports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">social history</t>
-  </si>
-  <si>
-    <t xml:space="preserve">son called</t>
-  </si>
-  <si>
-    <t xml:space="preserve">son reported</t>
-  </si>
-  <si>
-    <t xml:space="preserve">son reports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">source for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">source of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sources for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sources of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">speaking with family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spoke with family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">states</t>
-  </si>
-  <si>
-    <t xml:space="preserve">status post</t>
-  </si>
-  <si>
-    <t xml:space="preserve">still</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stopped taking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">studies to assess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">study to assess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sudden onset of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sufficient to rule her out against</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sufficient to rule her out for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sufficient to rule her out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sufficient to rule him out against</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sufficient to rule him out for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sufficient to rule him out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sufficient to rule out against</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sufficient to rule out for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sufficient to rule out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sufficient to rule the patient out against</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sufficient to rule the patient out for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sufficient to rule the patient out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">suggestive of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">suggest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">suspected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">suspicion for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">suspicious for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">talked with family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">talking with family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the presumed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">though</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to evaluate for any</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to exclude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to prevent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">today</t>
-  </si>
-  <si>
-    <t xml:space="preserve">treatment of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trigger event for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uncle's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unclear dose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unclear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unlikely</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#She continues to use IUD and condoms as her two forms of birth control.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">continue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">w/o evidence of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">w/o evidence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">w/o</t>
-  </si>
-  <si>
-    <t xml:space="preserve">w o evidence of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">w o evidence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">w o</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wants to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">was found negative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">was found</t>
-  </si>
-  <si>
-    <t xml:space="preserve">was initially suspected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">was instructed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">was negative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">was noted to be negative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">was not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">was ruled out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">was stopped by</t>
-  </si>
-  <si>
-    <t xml:space="preserve">was stopped due to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">was stopped</t>
-  </si>
-  <si>
-    <t xml:space="preserve">was suspected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wasn't</t>
-  </si>
-  <si>
-    <t xml:space="preserve">were instructed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">were stopped</t>
-  </si>
-  <si>
-    <t xml:space="preserve">were totally</t>
-  </si>
-  <si>
-    <t xml:space="preserve">what must be ruled out is</t>
-  </si>
-  <si>
-    <t xml:space="preserve">whether or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">which</t>
-  </si>
-  <si>
-    <t xml:space="preserve">while</t>
-  </si>
-  <si>
-    <t xml:space="preserve">who are not present</t>
-  </si>
-  <si>
-    <t xml:space="preserve">will be ruled out for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">will be ruled out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">with \w+ dad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">with \w+ daughter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">with \w+ father</t>
-  </si>
-  <si>
-    <t xml:space="preserve">with \w+ mom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">with \w+ mother</t>
-  </si>
-  <si>
-    <t xml:space="preserve">with \w+ son</t>
-  </si>
-  <si>
-    <t xml:space="preserve">with a question of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">without \w+ evidence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">without abnormal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">without active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">without additional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">without any evidence of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">without any</t>
-  </si>
-  <si>
-    <t xml:space="preserve">without an</t>
-  </si>
-  <si>
-    <t xml:space="preserve">without apparent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">without audible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">without a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">without becoming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">without being</t>
-  </si>
-  <si>
-    <t xml:space="preserve">without causing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">without difficulties</t>
-  </si>
-  <si>
-    <t xml:space="preserve">without difficulty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">without diff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">without evidence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">without experiencing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">without further</t>
-  </si>
-  <si>
-    <t xml:space="preserve">without gross</t>
-  </si>
-  <si>
-    <t xml:space="preserve">without having</t>
-  </si>
-  <si>
-    <t xml:space="preserve">without increased</t>
-  </si>
-  <si>
-    <t xml:space="preserve">without indication of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">without left</t>
-  </si>
-  <si>
-    <t xml:space="preserve">without major</t>
-  </si>
-  <si>
-    <t xml:space="preserve">without maximally</t>
-  </si>
-  <si>
-    <t xml:space="preserve">without mention of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">without much</t>
-  </si>
-  <si>
-    <t xml:space="preserve">without new</t>
-  </si>
-  <si>
-    <t xml:space="preserve">without noted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">without noticed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">without not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">without no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">without obvious</t>
-  </si>
-  <si>
-    <t xml:space="preserve">without other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">without painful</t>
-  </si>
-  <si>
-    <t xml:space="preserve">without paraspinal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">without peripheral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">without purulent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">without reported</t>
-  </si>
-  <si>
-    <t xml:space="preserve">without right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">without sign of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">without significant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">without signs of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">without some</t>
-  </si>
-  <si>
-    <t xml:space="preserve">without success</t>
-  </si>
-  <si>
-    <t xml:space="preserve">without the</t>
-  </si>
-  <si>
-    <t xml:space="preserve">without upward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">without using</t>
-  </si>
-  <si>
-    <t xml:space="preserve">without visible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">without vital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">without which</t>
-  </si>
-  <si>
-    <t xml:space="preserve">worried about</t>
-  </si>
-  <si>
-    <t xml:space="preserve">worrisome for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">given</t>
-  </si>
-  <si>
-    <t xml:space="preserve">with resolution of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">call</t>
-  </si>
-  <si>
-    <t xml:space="preserve">## if tokenize include punctuations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">w / o evidence of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">w / o evidence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">w / o</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f / h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h / o</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no e / o</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no h / o</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r / o</t>
-  </si>
-  <si>
     <t xml:space="preserve">&gt; 13 - day of</t>
   </si>
   <si>
@@ -3603,114 +3828,6 @@
   </si>
   <si>
     <t xml:space="preserve">&gt; 0 - years of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dont</t>
-  </si>
-  <si>
-    <t xml:space="preserve">don t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">high risk for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">don ' t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">monitor for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">monitored for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">high risk of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">at risk of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protocol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">panel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">evaluation for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">evaluation of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eval for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eval of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assess for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assess of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">check for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">evaluate for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">evalaute for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#history of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">friends</t>
-  </si>
-  <si>
-    <t xml:space="preserve">friend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#she quit smoking tobacco </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ceases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ceased</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">( neg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#qualifications met for psychiatric referral? no if yes: substance abuse: mary endorses a history of smoking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">from age &gt; 5 - &gt; 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">: denies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">: denied</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maternal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">history for</t>
   </si>
   <si>
     <t xml:space="preserve">history of</t>
@@ -3819,9 +3936,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1721"/>
+  <dimension ref="A1:F1722"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1702" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1692" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1723" activeCellId="0" sqref="A1723"/>
     </sheetView>
   </sheetViews>
@@ -32637,6 +32754,23 @@
       </c>
       <c r="E1721" s="0" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="1722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1722" s="0" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B1722" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1722" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1722" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1722" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -37946,7 +38080,7 @@
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="B316" s="0" t="s">
         <v>34</v>
@@ -39238,7 +39372,7 @@
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="0" t="s">
-        <v>358</v>
+        <v>1230</v>
       </c>
       <c r="B394" s="0" t="s">
         <v>28</v>
@@ -39255,7 +39389,7 @@
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="0" t="s">
-        <v>359</v>
+        <v>1231</v>
       </c>
       <c r="B395" s="0" t="s">
         <v>28</v>
@@ -39272,7 +39406,7 @@
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="0" t="s">
-        <v>360</v>
+        <v>1232</v>
       </c>
       <c r="B396" s="0" t="s">
         <v>28</v>
@@ -39289,7 +39423,7 @@
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="0" t="s">
-        <v>361</v>
+        <v>1233</v>
       </c>
       <c r="B397" s="0" t="s">
         <v>28</v>
@@ -39306,7 +39440,7 @@
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="0" t="s">
-        <v>362</v>
+        <v>1234</v>
       </c>
       <c r="B398" s="0" t="s">
         <v>24</v>
@@ -39323,7 +39457,7 @@
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="0" t="s">
-        <v>363</v>
+        <v>1235</v>
       </c>
       <c r="B399" s="0" t="s">
         <v>28</v>
@@ -39340,7 +39474,7 @@
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="0" t="s">
-        <v>364</v>
+        <v>1236</v>
       </c>
       <c r="B400" s="0" t="s">
         <v>24</v>
@@ -39357,7 +39491,7 @@
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="0" t="s">
-        <v>365</v>
+        <v>1237</v>
       </c>
       <c r="B401" s="0" t="s">
         <v>28</v>
@@ -39374,7 +39508,7 @@
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="0" t="s">
-        <v>366</v>
+        <v>1238</v>
       </c>
       <c r="B402" s="0" t="s">
         <v>24</v>
@@ -39391,7 +39525,7 @@
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="0" t="s">
-        <v>367</v>
+        <v>1239</v>
       </c>
       <c r="B403" s="0" t="s">
         <v>28</v>
@@ -39411,7 +39545,7 @@
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="0" t="s">
-        <v>368</v>
+        <v>1240</v>
       </c>
       <c r="B405" s="0" t="s">
         <v>24</v>
@@ -39428,7 +39562,7 @@
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="0" t="s">
-        <v>369</v>
+        <v>1241</v>
       </c>
       <c r="B406" s="0" t="s">
         <v>28</v>
@@ -39445,7 +39579,7 @@
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="0" t="s">
-        <v>370</v>
+        <v>1242</v>
       </c>
       <c r="B407" s="0" t="s">
         <v>24</v>
@@ -39462,7 +39596,7 @@
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="0" t="s">
-        <v>371</v>
+        <v>1243</v>
       </c>
       <c r="B408" s="0" t="s">
         <v>28</v>
@@ -39479,7 +39613,7 @@
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="0" t="s">
-        <v>372</v>
+        <v>1244</v>
       </c>
       <c r="B409" s="0" t="s">
         <v>24</v>
@@ -39496,7 +39630,7 @@
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="0" t="s">
-        <v>373</v>
+        <v>1245</v>
       </c>
       <c r="B410" s="0" t="s">
         <v>28</v>
@@ -39513,7 +39647,7 @@
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="0" t="s">
-        <v>374</v>
+        <v>1246</v>
       </c>
       <c r="B411" s="0" t="s">
         <v>28</v>
@@ -39530,7 +39664,7 @@
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="0" t="s">
-        <v>375</v>
+        <v>1247</v>
       </c>
       <c r="B412" s="0" t="s">
         <v>24</v>
@@ -39547,7 +39681,7 @@
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="0" t="s">
-        <v>376</v>
+        <v>1248</v>
       </c>
       <c r="B413" s="0" t="s">
         <v>28</v>
@@ -39564,7 +39698,7 @@
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="0" t="s">
-        <v>377</v>
+        <v>1249</v>
       </c>
       <c r="B414" s="0" t="s">
         <v>24</v>
@@ -39581,7 +39715,7 @@
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="0" t="s">
-        <v>378</v>
+        <v>1250</v>
       </c>
       <c r="B415" s="0" t="s">
         <v>28</v>
@@ -39598,7 +39732,7 @@
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="0" t="s">
-        <v>379</v>
+        <v>1251</v>
       </c>
       <c r="B416" s="0" t="s">
         <v>28</v>
@@ -39615,7 +39749,7 @@
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="0" t="s">
-        <v>380</v>
+        <v>1252</v>
       </c>
       <c r="B417" s="0" t="s">
         <v>28</v>
@@ -39632,7 +39766,7 @@
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="0" t="s">
-        <v>381</v>
+        <v>1253</v>
       </c>
       <c r="B418" s="0" t="s">
         <v>28</v>
@@ -39649,7 +39783,7 @@
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="0" t="s">
-        <v>382</v>
+        <v>1254</v>
       </c>
       <c r="B419" s="0" t="s">
         <v>28</v>
@@ -49105,7 +49239,7 @@
     </row>
     <row r="978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="0" t="s">
-        <v>1229</v>
+        <v>1255</v>
       </c>
       <c r="B978" s="0" t="s">
         <v>34</v>
@@ -49760,7 +49894,7 @@
     </row>
     <row r="1018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1018" s="0" t="s">
-        <v>764</v>
+        <v>1256</v>
       </c>
       <c r="B1018" s="0" t="s">
         <v>24</v>
@@ -49777,7 +49911,7 @@
     </row>
     <row r="1019" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1019" s="0" t="s">
-        <v>765</v>
+        <v>1257</v>
       </c>
       <c r="B1019" s="0" t="s">
         <v>24</v>
@@ -49794,7 +49928,7 @@
     </row>
     <row r="1020" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1020" s="0" t="s">
-        <v>766</v>
+        <v>1258</v>
       </c>
       <c r="B1020" s="0" t="s">
         <v>24</v>
@@ -49811,7 +49945,7 @@
     </row>
     <row r="1021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1021" s="0" t="s">
-        <v>767</v>
+        <v>1259</v>
       </c>
       <c r="B1021" s="0" t="s">
         <v>24</v>
@@ -49828,7 +49962,7 @@
     </row>
     <row r="1022" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1022" s="0" t="s">
-        <v>768</v>
+        <v>1260</v>
       </c>
       <c r="B1022" s="0" t="s">
         <v>24</v>
@@ -49845,7 +49979,7 @@
     </row>
     <row r="1023" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1023" s="0" t="s">
-        <v>769</v>
+        <v>1261</v>
       </c>
       <c r="B1023" s="0" t="s">
         <v>24</v>
@@ -49862,7 +49996,7 @@
     </row>
     <row r="1024" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1024" s="0" t="s">
-        <v>770</v>
+        <v>1262</v>
       </c>
       <c r="B1024" s="0" t="s">
         <v>24</v>
@@ -60688,7 +60822,7 @@
     </row>
     <row r="1666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1666" s="0" t="s">
-        <v>1188</v>
+        <v>1263</v>
       </c>
       <c r="B1666" s="0" t="s">
         <v>28</v>
@@ -60705,7 +60839,7 @@
     </row>
     <row r="1667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1667" s="0" t="s">
-        <v>1189</v>
+        <v>1264</v>
       </c>
       <c r="B1667" s="0" t="s">
         <v>28</v>
@@ -60722,7 +60856,7 @@
     </row>
     <row r="1668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1668" s="0" t="s">
-        <v>1190</v>
+        <v>1265</v>
       </c>
       <c r="B1668" s="0" t="s">
         <v>28</v>
@@ -60739,7 +60873,7 @@
     </row>
     <row r="1669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1669" s="0" t="s">
-        <v>1191</v>
+        <v>1266</v>
       </c>
       <c r="B1669" s="0" t="s">
         <v>28</v>
@@ -60756,7 +60890,7 @@
     </row>
     <row r="1670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1670" s="0" t="s">
-        <v>1192</v>
+        <v>1267</v>
       </c>
       <c r="B1670" s="0" t="s">
         <v>28</v>
@@ -60773,7 +60907,7 @@
     </row>
     <row r="1671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1671" s="0" t="s">
-        <v>1193</v>
+        <v>1268</v>
       </c>
       <c r="B1671" s="0" t="s">
         <v>28</v>
@@ -60790,7 +60924,7 @@
     </row>
     <row r="1672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1672" s="0" t="s">
-        <v>373</v>
+        <v>1245</v>
       </c>
       <c r="B1672" s="0" t="s">
         <v>28</v>
@@ -60807,7 +60941,7 @@
     </row>
     <row r="1673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1673" s="0" t="s">
-        <v>374</v>
+        <v>1246</v>
       </c>
       <c r="B1673" s="0" t="s">
         <v>28</v>
@@ -61232,7 +61366,7 @@
     </row>
     <row r="1698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1698" s="0" t="s">
-        <v>1230</v>
+        <v>1269</v>
       </c>
       <c r="B1698" s="0" t="s">
         <v>28</v>

--- a/conf/smoke3/smoke_context.xlsx
+++ b/conf/smoke3/smoke_context.xlsx
@@ -3938,8 +3938,8 @@
   </sheetPr>
   <dimension ref="A1:F1722"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1692" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1723" activeCellId="0" sqref="A1723"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -32791,8 +32791,8 @@
   </sheetPr>
   <dimension ref="A1:F1701"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
